--- a/Data/Mappings/ΛΙΣΤΑ ΔΙΚΗΓΟΡΩΝ ΕΝΟΡΚΩΝ.xlsx
+++ b/Data/Mappings/ΛΙΣΤΑ ΔΙΚΗΓΟΡΩΝ ΕΝΟΡΚΩΝ.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pallist\Desktop\ΤΡΕΧΟΝΤΑ\Testing Folder\Auto ενορκες\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pallist\Desktop\Desktop\ΤΡΕΧΟΝΤΑ\Testing Folder\Auto_enorkes_31_5_24\Data\Mappings\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D924E914-E6BA-4ACE-B720-32E82AC1C3A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{405E42DC-A504-4212-A721-3162D8512437}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="24" yWindow="24" windowWidth="23016" windowHeight="12936" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Φύλλο1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="122">
   <si>
     <t>ΑΒΡΑΜΗΣ ΘΕΟΔΩΡΟΣ</t>
   </si>
@@ -392,6 +392,18 @@
   </si>
   <si>
     <t>ΠΑΠΙΚΙΝΟΥ</t>
+  </si>
+  <si>
+    <t>ΜΠΟΥΖΑΚΗΣ ΓΕΩΡΓΙΟΣ</t>
+  </si>
+  <si>
+    <t>του δικηγόρου Χανίων, Γεωργίου Μπουζάκη του Μάρκου, Δικηγόρος Χανίων, ΑΜ/ΔΣ 506, ΑΦΜ. 150240234</t>
+  </si>
+  <si>
+    <t>ΜΠΑΡΛΑ ΜΑΡΙΑ</t>
+  </si>
+  <si>
+    <t>της δικηγόρου Αθηνών, Μπάρλα Μαρίας του Γεωργίου, Δικηγόρος Αθηνών, ΑΜ/ΔΣΑ 43355,με έδρα τον Άγιο Ιωάννη Ρέντη Αττικής οδός Νέου Φαλήρου  αρ.  6Α,   ΑΦΜ. 168520707</t>
   </si>
 </sst>
 </file>
@@ -528,9 +540,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Θέμα του Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Θέμα Office 2013 - 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -568,7 +580,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -674,7 +686,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -816,7 +828,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -827,16 +839,16 @@
   <dimension ref="A1:C61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.140625" customWidth="1"/>
+    <col min="1" max="1" width="30.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -847,7 +859,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -858,7 +870,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>51</v>
       </c>
@@ -869,7 +881,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>57</v>
       </c>
@@ -880,7 +892,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
@@ -891,7 +903,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>6</v>
       </c>
@@ -902,7 +914,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>65</v>
       </c>
@@ -913,7 +925,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>8</v>
       </c>
@@ -924,7 +936,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>10</v>
       </c>
@@ -935,7 +947,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>12</v>
       </c>
@@ -946,7 +958,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>67</v>
       </c>
@@ -957,7 +969,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>14</v>
       </c>
@@ -968,7 +980,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>16</v>
       </c>
@@ -979,7 +991,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>18</v>
       </c>
@@ -990,7 +1002,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>20</v>
       </c>
@@ -1001,7 +1013,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>22</v>
       </c>
@@ -1012,7 +1024,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>24</v>
       </c>
@@ -1023,7 +1035,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>26</v>
       </c>
@@ -1034,7 +1046,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
         <v>53</v>
       </c>
@@ -1045,7 +1057,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>28</v>
       </c>
@@ -1056,7 +1068,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
         <v>28</v>
       </c>
@@ -1067,7 +1079,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
         <v>55</v>
       </c>
@@ -1078,7 +1090,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
         <v>30</v>
       </c>
@@ -1089,7 +1101,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
         <v>32</v>
       </c>
@@ -1100,7 +1112,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
         <v>34</v>
       </c>
@@ -1111,7 +1123,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
         <v>36</v>
       </c>
@@ -1122,7 +1134,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
         <v>38</v>
       </c>
@@ -1133,7 +1145,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
         <v>61</v>
       </c>
@@ -1144,7 +1156,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
         <v>59</v>
       </c>
@@ -1155,7 +1167,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="7" t="s">
         <v>40</v>
       </c>
@@ -1166,7 +1178,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
         <v>41</v>
       </c>
@@ -1177,7 +1189,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
         <v>43</v>
       </c>
@@ -1188,7 +1200,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
         <v>45</v>
       </c>
@@ -1199,7 +1211,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
         <v>47</v>
       </c>
@@ -1210,7 +1222,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
         <v>49</v>
       </c>
@@ -1221,7 +1233,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="10" t="s">
         <v>69</v>
       </c>
@@ -1232,7 +1244,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="10" t="s">
         <v>8</v>
       </c>
@@ -1243,7 +1255,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="12" t="s">
         <v>72</v>
       </c>
@@ -1254,7 +1266,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="8" t="s">
         <v>74</v>
       </c>
@@ -1265,7 +1277,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="8" t="s">
         <v>76</v>
       </c>
@@ -1276,7 +1288,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="8" t="s">
         <v>78</v>
       </c>
@@ -1287,64 +1299,74 @@
         <v>117</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42"/>
-    </row>
-    <row r="43" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43"/>
-    </row>
-    <row r="44" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="B42" s="9" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="B43" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44"/>
     </row>
-    <row r="45" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45"/>
     </row>
-    <row r="46" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46"/>
     </row>
-    <row r="47" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47"/>
     </row>
-    <row r="48" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48"/>
     </row>
-    <row r="49" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49"/>
     </row>
-    <row r="50" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50"/>
     </row>
-    <row r="51" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51"/>
     </row>
-    <row r="52" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52"/>
     </row>
-    <row r="53" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53"/>
     </row>
-    <row r="54" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54"/>
     </row>
-    <row r="55" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55"/>
     </row>
-    <row r="56" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56"/>
     </row>
-    <row r="57" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57"/>
     </row>
-    <row r="58" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58"/>
     </row>
-    <row r="59" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59"/>
     </row>
-    <row r="60" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60"/>
     </row>
-    <row r="61" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61"/>
     </row>
   </sheetData>
